--- a/biology/Médecine/Sunnyside_Hospital/Sunnyside_Hospital.xlsx
+++ b/biology/Médecine/Sunnyside_Hospital/Sunnyside_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sunnyside Hospital (1863-1999) est le premier hôpital psychiatrique construit à Christchurch, en Nouvelle-Zélande. Il a d'abord porté le nom de Sunnyside Lunatic Asylum et a eu pour premiers patients 17 personnes auparavant incarcérées à la prison de Lyttelton[1]. En 2007, il ne reste plus sur les lieux que l'Hilmorton Hospital, parmi d'autres services de santé mentale.
+Sunnyside Hospital (1863-1999) est le premier hôpital psychiatrique construit à Christchurch, en Nouvelle-Zélande. Il a d'abord porté le nom de Sunnyside Lunatic Asylum et a eu pour premiers patients 17 personnes auparavant incarcérées à la prison de Lyttelton. En 2007, il ne reste plus sur les lieux que l'Hilmorton Hospital, parmi d'autres services de santé mentale.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sunnyside a été principalement bâti par l'architecte néo-gothique néo-zélandais Benjamin Mountfort, le bâtiment administratif étant l'œuvre de John Campbell (en).
 </t>
@@ -543,7 +557,9 @@
           <t>Personnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward William Seagar a été le premier super-intendant du Sunnyside Hospital.
 En 1995, quatre ans avant sa fermeture, des infirmières ont quitté le travail en raison de conditions de travail dangereuses.
@@ -575,12 +591,14 @@
           <t>Patients célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Rita Angus, peintre, en 1950[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rita Angus, peintre, en 1950.
 Janet Frame, écrivain. Frame a décrit dans son autobiographie An Angel at my Table (1984) et son roman Faces in the Water (en français, Visages noyés) certaines de ses expériences à Sunnyside, notamment les électrochocs qu'elle y a subis.
-Mabel Howard, syndicaliste, politicienne, première femme ministre de Nouvelle-Zélande, y est morte le 23 juin 1972[3].
-Richard Pearse (en), inventeur et pionnier de l'aviation, y a été interné de juin 1951 à sa mort en juillet 1953[4].</t>
+Mabel Howard, syndicaliste, politicienne, première femme ministre de Nouvelle-Zélande, y est morte le 23 juin 1972.
+Richard Pearse (en), inventeur et pionnier de l'aviation, y a été interné de juin 1951 à sa mort en juillet 1953.</t>
         </is>
       </c>
     </row>
